--- a/positions.xlsx
+++ b/positions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Spring_Work\36. Codes\cv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\cv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A7BFF6-74D3-4FF0-ABF3-14268BE72583}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B3A7BD-C867-460D-9027-9E7175751D29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="125">
   <si>
     <t># education</t>
   </si>
@@ -320,18 +320,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018-11-15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-11-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-3-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2018-7-18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -380,14 +368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018-11-17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-10-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2017-10-19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,6 +381,58 @@
   </si>
   <si>
     <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>now</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post-doc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二届土壤生物健康研讨会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于土壤健康，微生态研究给我带来的3个遐想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海南兴隆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -727,26 +759,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="32.25" customWidth="1"/>
+    <col min="1" max="1" width="32.265625" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.75" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="16.46484375" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.73046875" customWidth="1"/>
+    <col min="7" max="7" width="14.46484375" customWidth="1"/>
+    <col min="8" max="8" width="11.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -778,12 +810,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -815,7 +847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -847,7 +879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -879,7 +911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -911,7 +943,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -922,10 +954,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
@@ -943,81 +975,81 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2020</v>
+        <v>117</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
       </c>
       <c r="I9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="I10" t="s">
         <v>36</v>
       </c>
-      <c r="J10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2013</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2015</v>
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -1035,21 +1067,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E12" s="1">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -1067,58 +1099,58 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2012</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2012</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>43</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>44</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
@@ -1136,21 +1168,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
@@ -1168,21 +1200,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -1200,58 +1232,58 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>52</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>53</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2004</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2005</v>
-      </c>
-      <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" t="s">
-        <v>54</v>
-      </c>
-      <c r="J19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="1">
+        <v>2004</v>
+      </c>
+      <c r="E20" s="1">
         <v>2005</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2006</v>
       </c>
       <c r="F20" t="s">
         <v>22</v>
@@ -1269,21 +1301,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="1">
+        <v>2005</v>
+      </c>
+      <c r="E21" s="1">
         <v>2006</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2007</v>
       </c>
       <c r="F21" t="s">
         <v>22</v>
@@ -1301,21 +1333,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E22" s="1">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -1333,12 +1365,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
@@ -1347,7 +1379,7 @@
         <v>2008</v>
       </c>
       <c r="E23" s="1">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F23" t="s">
         <v>22</v>
@@ -1365,7 +1397,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -1376,10 +1408,10 @@
         <v>20</v>
       </c>
       <c r="D24" s="1">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E24" s="1">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F24" t="s">
         <v>22</v>
@@ -1397,21 +1429,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="1">
+        <v>2010</v>
+      </c>
+      <c r="E25" s="1">
         <v>2011</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2012</v>
       </c>
       <c r="F25" t="s">
         <v>22</v>
@@ -1429,18 +1461,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="1">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E26" s="1">
         <v>2012</v>
@@ -1461,58 +1493,58 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2012</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2012</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2018</v>
-      </c>
-      <c r="E28" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" t="s">
-        <v>65</v>
-      </c>
-      <c r="J28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="1">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="E29" s="1">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="F29" t="s">
         <v>22</v>
@@ -1530,21 +1562,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="1">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="E30" s="1">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F30" t="s">
         <v>22</v>
@@ -1562,58 +1594,58 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2011</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" t="s">
+        <v>65</v>
+      </c>
+      <c r="J31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
         <v>68</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>69</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D33" s="1">
         <v>2016</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E33" s="1">
         <v>2016</v>
-      </c>
-      <c r="F32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" t="s">
-        <v>71</v>
-      </c>
-      <c r="J32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E33" s="1">
-        <v>2017</v>
       </c>
       <c r="F33" t="s">
         <v>22</v>
@@ -1631,21 +1663,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>103</v>
+        <v>74</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2017</v>
       </c>
       <c r="F34" t="s">
         <v>22</v>
@@ -1663,127 +1695,127 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" t="s">
+        <v>71</v>
+      </c>
+      <c r="J35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" t="s">
+        <v>111</v>
+      </c>
+      <c r="I36" t="s">
+        <v>71</v>
+      </c>
+      <c r="J36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
         <v>77</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>78</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" t="s">
-        <v>22</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="D38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" t="s">
         <v>79</v>
       </c>
-      <c r="J36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="J38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38" t="s">
-        <v>83</v>
-      </c>
-      <c r="J38" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" t="s">
-        <v>83</v>
-      </c>
-      <c r="J39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
@@ -1801,21 +1833,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
@@ -1833,21 +1865,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F42" t="s">
         <v>22</v>
@@ -1865,21 +1897,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F43" t="s">
         <v>22</v>
@@ -1894,6 +1926,70 @@
         <v>83</v>
       </c>
       <c r="J43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" t="s">
+        <v>83</v>
+      </c>
+      <c r="J44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" t="s">
+        <v>83</v>
+      </c>
+      <c r="J45" t="s">
         <v>22</v>
       </c>
     </row>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\cv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B3A7BD-C867-460D-9027-9E7175751D29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14006F6C-D7E4-4DB1-8F3D-247245EF5CC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="122">
   <si>
     <t># education</t>
   </si>
@@ -396,26 +396,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2016-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020-11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>now</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post-doc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第二届土壤生物健康研讨会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -433,6 +417,10 @@
   </si>
   <si>
     <t>2020-12-27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -759,11 +747,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -982,74 +970,74 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="I9" t="s">
         <v>36</v>
       </c>
-      <c r="J9" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
       </c>
       <c r="I10" t="s">
         <v>36</v>
       </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>115</v>
+        <v>39</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2013</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2015</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -1069,19 +1057,19 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E12" s="1">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -1101,56 +1089,56 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2012</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2012</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
@@ -1170,19 +1158,19 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
@@ -1205,16 +1193,16 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -1234,56 +1222,56 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" t="s">
-        <v>46</v>
-      </c>
-      <c r="J18" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2004</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2005</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="1">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E20" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="F20" t="s">
         <v>22</v>
@@ -1303,19 +1291,19 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E21" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="F21" t="s">
         <v>22</v>
@@ -1335,19 +1323,19 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="E22" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -1367,10 +1355,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
@@ -1379,7 +1367,7 @@
         <v>2008</v>
       </c>
       <c r="E23" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="F23" t="s">
         <v>22</v>
@@ -1408,10 +1396,10 @@
         <v>20</v>
       </c>
       <c r="D24" s="1">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="E24" s="1">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F24" t="s">
         <v>22</v>
@@ -1431,19 +1419,19 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E25" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="F25" t="s">
         <v>22</v>
@@ -1463,16 +1451,16 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E26" s="1">
         <v>2012</v>
@@ -1495,39 +1483,39 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2012</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2012</v>
-      </c>
-      <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" t="s">
-        <v>54</v>
-      </c>
-      <c r="J27" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
@@ -1535,16 +1523,16 @@
         <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="1">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="E29" s="1">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="F29" t="s">
         <v>22</v>
@@ -1567,16 +1555,16 @@
         <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="1">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="E30" s="1">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="F30" t="s">
         <v>22</v>
@@ -1596,56 +1584,56 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="1">
-        <v>2011</v>
-      </c>
-      <c r="E31" s="1">
-        <v>2011</v>
-      </c>
-      <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" t="s">
-        <v>65</v>
-      </c>
-      <c r="J31" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2016</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" t="s">
+        <v>71</v>
+      </c>
+      <c r="J32" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D33" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E33" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F33" t="s">
         <v>22</v>
@@ -1665,19 +1653,19 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E34" s="1">
-        <v>2017</v>
+        <v>45</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="F34" t="s">
         <v>22</v>
@@ -1697,108 +1685,108 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="G35" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="H35" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="I35" t="s">
         <v>71</v>
       </c>
       <c r="J35" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" t="s">
-        <v>122</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F36" t="s">
-        <v>111</v>
-      </c>
-      <c r="G36" t="s">
-        <v>111</v>
-      </c>
-      <c r="H36" t="s">
-        <v>111</v>
-      </c>
-      <c r="I36" t="s">
-        <v>71</v>
-      </c>
-      <c r="J36" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" t="s">
+        <v>79</v>
+      </c>
+      <c r="J37" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38" t="s">
-        <v>79</v>
-      </c>
-      <c r="J38" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>80</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" t="s">
+        <v>83</v>
+      </c>
+      <c r="J39" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
@@ -1806,16 +1794,16 @@
         <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
@@ -1838,16 +1826,16 @@
         <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
@@ -1870,16 +1858,16 @@
         <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
         <v>20</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F42" t="s">
         <v>22</v>
@@ -1902,16 +1890,16 @@
         <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F43" t="s">
         <v>22</v>
@@ -1934,16 +1922,16 @@
         <v>80</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F44" t="s">
         <v>22</v>
@@ -1958,38 +1946,6 @@
         <v>83</v>
       </c>
       <c r="J44" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" t="s">
-        <v>22</v>
-      </c>
-      <c r="I45" t="s">
-        <v>83</v>
-      </c>
-      <c r="J45" t="s">
         <v>22</v>
       </c>
     </row>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\cv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14006F6C-D7E4-4DB1-8F3D-247245EF5CC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF4B98C-9D86-45CC-8FF8-14673A03EFC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="133">
   <si>
     <t># education</t>
   </si>
@@ -114,15 +114,6 @@
     <t>Singapore, SG</t>
   </si>
   <si>
-    <t>韶山干部培训学院</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "“不忘初心，牢记使命”教工党员培训班"</t>
-  </si>
-  <si>
-    <t>中科院南京土壤所</t>
-  </si>
-  <si>
     <t>土壤微生物新理论新技术研讨会暨培训班</t>
   </si>
   <si>
@@ -308,10 +299,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据科学家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>北京, 中国</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -320,22 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018-7-18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-12-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-5-24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-6-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2018-9-11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -384,10 +355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018-11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2019-11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -420,7 +387,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2021</t>
+    <t>2007-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2004-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2008-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> “不忘初心，牢记使命”教工党员培训班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data  Scientist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-11-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-11-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-11-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-11-17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -750,8 +797,8 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD9"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -813,11 +860,11 @@
       <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1">
-        <v>2007</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2012</v>
+      <c r="D3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -845,11 +892,11 @@
       <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1">
-        <v>2004</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2008</v>
+      <c r="D4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -877,11 +924,11 @@
       <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1">
-        <v>2016</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2016</v>
+      <c r="D5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
@@ -901,111 +948,111 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2018</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" t="s">
         <v>33</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -1017,7 +1064,7 @@
         <v>22</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s">
         <v>22</v>
@@ -1025,34 +1072,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2013</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2015</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
@@ -1065,11 +1085,11 @@
       <c r="C12" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="1">
-        <v>2012</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2012</v>
+      <c r="D12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -1081,7 +1101,7 @@
         <v>22</v>
       </c>
       <c r="I12" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J12" t="s">
         <v>22</v>
@@ -1089,36 +1109,63 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" t="s">
         <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" t="s">
-        <v>46</v>
       </c>
       <c r="J14" t="s">
         <v>22</v>
@@ -1126,7 +1173,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
         <v>48</v>
@@ -1135,10 +1182,10 @@
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
@@ -1150,7 +1197,7 @@
         <v>22</v>
       </c>
       <c r="I15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J15" t="s">
         <v>22</v>
@@ -1158,34 +1205,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" t="s">
-        <v>46</v>
-      </c>
-      <c r="J16" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
@@ -1193,16 +1213,16 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>99</v>
+      <c r="D17" s="1">
+        <v>2004</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2005</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -1214,7 +1234,7 @@
         <v>22</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J17" t="s">
         <v>22</v>
@@ -1222,24 +1242,51 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2005</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2006</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="1">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E19" s="1">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="F19" t="s">
         <v>22</v>
@@ -1251,7 +1298,7 @@
         <v>22</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J19" t="s">
         <v>22</v>
@@ -1259,19 +1306,19 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="1">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E20" s="1">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="F20" t="s">
         <v>22</v>
@@ -1283,7 +1330,7 @@
         <v>22</v>
       </c>
       <c r="I20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J20" t="s">
         <v>22</v>
@@ -1291,19 +1338,19 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="1">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="E21" s="1">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="F21" t="s">
         <v>22</v>
@@ -1315,7 +1362,7 @@
         <v>22</v>
       </c>
       <c r="I21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J21" t="s">
         <v>22</v>
@@ -1326,16 +1373,16 @@
         <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="E22" s="1">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -1347,7 +1394,7 @@
         <v>22</v>
       </c>
       <c r="I22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J22" t="s">
         <v>22</v>
@@ -1355,19 +1402,19 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
         <v>58</v>
-      </c>
-      <c r="B23" t="s">
-        <v>59</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="1">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="E23" s="1">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="F23" t="s">
         <v>22</v>
@@ -1379,7 +1426,7 @@
         <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J23" t="s">
         <v>22</v>
@@ -1387,7 +1434,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
         <v>59</v>
@@ -1396,10 +1443,10 @@
         <v>20</v>
       </c>
       <c r="D24" s="1">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="E24" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="F24" t="s">
         <v>22</v>
@@ -1411,7 +1458,7 @@
         <v>22</v>
       </c>
       <c r="I24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J24" t="s">
         <v>22</v>
@@ -1419,63 +1466,36 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2011</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2012</v>
-      </c>
-      <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" t="s">
-        <v>54</v>
-      </c>
-      <c r="J25" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" t="s">
         <v>62</v>
-      </c>
-      <c r="C26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2012</v>
-      </c>
-      <c r="E26" s="1">
-        <v>2012</v>
-      </c>
-      <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" t="s">
-        <v>54</v>
       </c>
       <c r="J26" t="s">
         <v>22</v>
@@ -1483,12 +1503,39 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2013</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2013</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
         <v>64</v>
@@ -1497,10 +1544,10 @@
         <v>22</v>
       </c>
       <c r="D28" s="1">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="E28" s="1">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="F28" t="s">
         <v>22</v>
@@ -1512,7 +1559,7 @@
         <v>22</v>
       </c>
       <c r="I28" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J28" t="s">
         <v>22</v>
@@ -1520,51 +1567,24 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2013</v>
-      </c>
-      <c r="E29" s="1">
-        <v>2013</v>
-      </c>
-      <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" t="s">
-        <v>65</v>
-      </c>
-      <c r="J29" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
         <v>67</v>
       </c>
-      <c r="C30" t="s">
-        <v>22</v>
-      </c>
       <c r="D30" s="1">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="E30" s="1">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="F30" t="s">
         <v>22</v>
@@ -1576,7 +1596,7 @@
         <v>22</v>
       </c>
       <c r="I30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J30" t="s">
         <v>22</v>
@@ -1584,36 +1604,63 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>69</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" t="s">
         <v>68</v>
-      </c>
-      <c r="B32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="1">
-        <v>2016</v>
-      </c>
-      <c r="E32" s="1">
-        <v>2016</v>
-      </c>
-      <c r="F32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" t="s">
-        <v>71</v>
       </c>
       <c r="J32" t="s">
         <v>22</v>
@@ -1621,103 +1668,76 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E33" s="1">
-        <v>2017</v>
+        <v>109</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G33" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="H33" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="I33" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J33" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" t="s">
-        <v>71</v>
-      </c>
-      <c r="J34" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F35" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="I35" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J35" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
@@ -1728,14 +1748,14 @@
         <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="F37" t="s">
         <v>22</v>
       </c>
@@ -1746,7 +1766,7 @@
         <v>22</v>
       </c>
       <c r="I37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J37" t="s">
         <v>22</v>
@@ -1754,36 +1774,63 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" t="s">
+        <v>80</v>
+      </c>
+      <c r="J38" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" t="s">
         <v>80</v>
-      </c>
-      <c r="B39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" t="s">
-        <v>83</v>
       </c>
       <c r="J39" t="s">
         <v>22</v>
@@ -1791,31 +1838,31 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" t="s">
         <v>80</v>
-      </c>
-      <c r="B40" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" t="s">
-        <v>22</v>
-      </c>
-      <c r="I40" t="s">
-        <v>83</v>
       </c>
       <c r="J40" t="s">
         <v>22</v>
@@ -1823,31 +1870,31 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" t="s">
         <v>80</v>
-      </c>
-      <c r="B41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" t="s">
-        <v>22</v>
-      </c>
-      <c r="I41" t="s">
-        <v>83</v>
       </c>
       <c r="J41" t="s">
         <v>22</v>
@@ -1855,19 +1902,19 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B42" t="s">
         <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F42" t="s">
         <v>22</v>
@@ -1879,7 +1926,7 @@
         <v>22</v>
       </c>
       <c r="I42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J42" t="s">
         <v>22</v>
@@ -1887,31 +1934,31 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" t="s">
         <v>80</v>
-      </c>
-      <c r="B43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" t="s">
-        <v>22</v>
-      </c>
-      <c r="I43" t="s">
-        <v>83</v>
       </c>
       <c r="J43" t="s">
         <v>22</v>
@@ -1919,31 +1966,31 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" t="s">
         <v>80</v>
-      </c>
-      <c r="B44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" t="s">
-        <v>22</v>
-      </c>
-      <c r="H44" t="s">
-        <v>22</v>
-      </c>
-      <c r="I44" t="s">
-        <v>83</v>
       </c>
       <c r="J44" t="s">
         <v>22</v>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\cv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF4B98C-9D86-45CC-8FF8-14673A03EFC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89C1532-EC52-4F92-A26D-A7AC5917C7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="148">
   <si>
     <t># education</t>
   </si>
@@ -261,9 +261,6 @@
     <t>_present_</t>
   </si>
   <si>
-    <t>中国肠道大会</t>
-  </si>
-  <si>
     <t>Beijing, CN</t>
   </si>
   <si>
@@ -276,9 +273,6 @@
     <t>Sino-German Symposium on Microbiomics and Plant Health</t>
   </si>
   <si>
-    <t>2019年“双一流”农科联盟暨学科建设研讨会</t>
-  </si>
-  <si>
     <t>深圳市合成生物产业发展研讨会</t>
   </si>
   <si>
@@ -468,6 +462,72 @@
   </si>
   <si>
     <t>2018-11-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土壤生物多样性与生物化学过程研讨会</t>
+  </si>
+  <si>
+    <t>二菌株合成菌群收敛演化的分子机制</t>
+  </si>
+  <si>
+    <t>安徽合肥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-6-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-6-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>presentation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_present_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nanjing, CN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-5-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-5-28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国肠道大会 2021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019 年“双一流”农科联盟暨学科建设研讨会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国肠道大会 2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-7-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-7-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>present</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第八届全国微生物基因组学学术研讨会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -794,11 +854,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -861,10 +921,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -893,10 +953,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -925,10 +985,10 @@
         <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
@@ -953,22 +1013,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I7" t="s">
         <v>33</v>
@@ -985,10 +1045,10 @@
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
@@ -1017,10 +1077,10 @@
         <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -1049,10 +1109,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -1086,10 +1146,10 @@
         <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -1118,10 +1178,10 @@
         <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -1150,10 +1210,10 @@
         <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
@@ -1182,10 +1242,10 @@
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
@@ -1645,10 +1705,10 @@
         <v>42</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F32" t="s">
         <v>22</v>
@@ -1668,108 +1728,108 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" t="s">
         <v>107</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E33" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="F33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I33" t="s">
         <v>68</v>
       </c>
       <c r="J33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>131</v>
+      </c>
+      <c r="B34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" t="s">
+        <v>101</v>
+      </c>
+      <c r="H34" t="s">
+        <v>101</v>
+      </c>
+      <c r="I34" t="s">
+        <v>136</v>
+      </c>
+      <c r="J34" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I35" t="s">
-        <v>76</v>
-      </c>
-      <c r="J35" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>74</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" t="s">
+        <v>76</v>
+      </c>
+      <c r="J36" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" t="s">
-        <v>80</v>
-      </c>
-      <c r="J37" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
@@ -1777,16 +1837,16 @@
         <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F38" t="s">
         <v>22</v>
@@ -1798,7 +1858,7 @@
         <v>22</v>
       </c>
       <c r="I38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s">
         <v>22</v>
@@ -1809,16 +1869,16 @@
         <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F39" t="s">
         <v>22</v>
@@ -1830,7 +1890,7 @@
         <v>22</v>
       </c>
       <c r="I39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s">
         <v>22</v>
@@ -1841,16 +1901,16 @@
         <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
         <v>20</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
@@ -1862,7 +1922,7 @@
         <v>22</v>
       </c>
       <c r="I40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J40" t="s">
         <v>22</v>
@@ -1873,16 +1933,16 @@
         <v>77</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
@@ -1894,7 +1954,7 @@
         <v>22</v>
       </c>
       <c r="I41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J41" t="s">
         <v>22</v>
@@ -1905,16 +1965,16 @@
         <v>77</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F42" t="s">
         <v>22</v>
@@ -1926,7 +1986,7 @@
         <v>22</v>
       </c>
       <c r="I42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s">
         <v>22</v>
@@ -1937,16 +1997,16 @@
         <v>77</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="F43" t="s">
         <v>22</v>
@@ -1958,7 +2018,7 @@
         <v>22</v>
       </c>
       <c r="I43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s">
         <v>22</v>
@@ -1969,31 +2029,127 @@
         <v>77</v>
       </c>
       <c r="B44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" t="s">
+        <v>79</v>
+      </c>
+      <c r="J44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" t="s">
         <v>29</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" t="s">
-        <v>22</v>
-      </c>
-      <c r="H44" t="s">
-        <v>22</v>
-      </c>
-      <c r="I44" t="s">
-        <v>80</v>
-      </c>
-      <c r="J44" t="s">
-        <v>22</v>
+      <c r="D45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" t="s">
+        <v>79</v>
+      </c>
+      <c r="J45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F46" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F47" t="s">
+        <v>101</v>
+      </c>
+      <c r="G47" t="s">
+        <v>101</v>
+      </c>
+      <c r="H47" t="s">
+        <v>101</v>
+      </c>
+      <c r="I47" t="s">
+        <v>146</v>
+      </c>
+      <c r="J47" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\cv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89C1532-EC52-4F92-A26D-A7AC5917C7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B32056A-F160-4837-9FDD-5BAE941FE241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="150">
   <si>
     <t># education</t>
   </si>
@@ -528,6 +528,14 @@
   </si>
   <si>
     <t>第八届全国微生物基因组学学术研讨会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># undergraduate students</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># _present_</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -857,8 +865,8 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1233,7 +1241,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s">
         <v>48</v>
@@ -1866,7 +1874,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
@@ -1930,7 +1938,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="B41" t="s">
         <v>142</v>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\cv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B32056A-F160-4837-9FDD-5BAE941FE241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BBBF9F-578F-45E5-AB0C-7D5D30F16F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="157">
   <si>
     <t># education</t>
   </si>
@@ -207,21 +207,9 @@
     <t>优秀毕业研究生</t>
   </si>
   <si>
-    <t>#"**PI**</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CNY ¥1</t>
-  </si>
-  <si>
     <t>grant</t>
   </si>
   <si>
-    <t xml:space="preserve"> CNY ¥100</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CNY ¥20</t>
-  </si>
-  <si>
     <t>中国土壤学会第十三次全国会员代表大会</t>
   </si>
   <si>
@@ -243,9 +231,6 @@
     <t>上海</t>
   </si>
   <si>
-    <t>华中农业大学资源与环境学院博士后交流会</t>
-  </si>
-  <si>
     <t>细菌的江湖——土壤微生物互作研究</t>
   </si>
   <si>
@@ -536,6 +521,54 @@
   </si>
   <si>
     <t># _present_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家重点研发计划子课题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博士后基金面上项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSFC 青年科学基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> CNY ¥5（主持）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> CNY ¥72.5（主持）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> CNY ¥24（主持）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 华中农业大学资源与环境学院博士后交流会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -866,7 +899,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -929,10 +962,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -961,10 +994,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -993,10 +1026,10 @@
         <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
@@ -1021,22 +1054,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I7" t="s">
         <v>33</v>
@@ -1053,10 +1086,10 @@
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
@@ -1085,10 +1118,10 @@
         <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -1117,10 +1150,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -1154,10 +1187,10 @@
         <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -1186,10 +1219,10 @@
         <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -1218,10 +1251,10 @@
         <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
@@ -1241,7 +1274,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s">
         <v>48</v>
@@ -1250,10 +1283,10 @@
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
@@ -1539,31 +1572,31 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" t="s">
         <v>60</v>
-      </c>
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2018</v>
-      </c>
-      <c r="E26" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" t="s">
-        <v>62</v>
       </c>
       <c r="J26" t="s">
         <v>22</v>
@@ -1571,31 +1604,31 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" t="s">
         <v>60</v>
-      </c>
-      <c r="B27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2013</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2013</v>
-      </c>
-      <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" t="s">
-        <v>62</v>
       </c>
       <c r="J27" t="s">
         <v>22</v>
@@ -1603,31 +1636,31 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" t="s">
         <v>60</v>
-      </c>
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2011</v>
-      </c>
-      <c r="E28" s="1">
-        <v>2011</v>
-      </c>
-      <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" t="s">
-        <v>62</v>
       </c>
       <c r="J28" t="s">
         <v>22</v>
@@ -1640,13 +1673,13 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D30" s="1">
         <v>2016</v>
@@ -1664,7 +1697,7 @@
         <v>22</v>
       </c>
       <c r="I30" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J30" t="s">
         <v>22</v>
@@ -1672,13 +1705,13 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D31" s="1">
         <v>2017</v>
@@ -1696,7 +1729,7 @@
         <v>22</v>
       </c>
       <c r="I31" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J31" t="s">
         <v>22</v>
@@ -1704,19 +1737,19 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F32" t="s">
         <v>22</v>
@@ -1728,7 +1761,7 @@
         <v>22</v>
       </c>
       <c r="I32" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J32" t="s">
         <v>22</v>
@@ -1736,66 +1769,66 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F33" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G33" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H33" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J33" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" t="s">
+        <v>96</v>
+      </c>
+      <c r="H34" t="s">
+        <v>96</v>
+      </c>
+      <c r="I34" t="s">
         <v>131</v>
       </c>
-      <c r="B34" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" t="s">
-        <v>133</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F34" t="s">
-        <v>101</v>
-      </c>
-      <c r="G34" t="s">
-        <v>101</v>
-      </c>
-      <c r="H34" t="s">
-        <v>101</v>
-      </c>
-      <c r="I34" t="s">
-        <v>136</v>
-      </c>
       <c r="J34" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
@@ -1805,19 +1838,19 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F36" t="s">
         <v>22</v>
@@ -1829,7 +1862,7 @@
         <v>22</v>
       </c>
       <c r="I36" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J36" t="s">
         <v>22</v>
@@ -1842,19 +1875,19 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F38" t="s">
         <v>22</v>
@@ -1866,7 +1899,7 @@
         <v>22</v>
       </c>
       <c r="I38" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J38" t="s">
         <v>22</v>
@@ -1874,19 +1907,19 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F39" t="s">
         <v>22</v>
@@ -1898,7 +1931,7 @@
         <v>22</v>
       </c>
       <c r="I39" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J39" t="s">
         <v>22</v>
@@ -1906,19 +1939,19 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
         <v>20</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
@@ -1930,7 +1963,7 @@
         <v>22</v>
       </c>
       <c r="I40" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J40" t="s">
         <v>22</v>
@@ -1938,19 +1971,19 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C41" t="s">
         <v>20</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
@@ -1962,7 +1995,7 @@
         <v>22</v>
       </c>
       <c r="I41" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J41" t="s">
         <v>22</v>
@@ -1970,19 +2003,19 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" t="s">
         <v>77</v>
       </c>
-      <c r="B42" t="s">
-        <v>82</v>
-      </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F42" t="s">
         <v>22</v>
@@ -1994,7 +2027,7 @@
         <v>22</v>
       </c>
       <c r="I42" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J42" t="s">
         <v>22</v>
@@ -2002,19 +2035,19 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F43" t="s">
         <v>22</v>
@@ -2026,7 +2059,7 @@
         <v>22</v>
       </c>
       <c r="I43" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J43" t="s">
         <v>22</v>
@@ -2034,19 +2067,19 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F44" t="s">
         <v>22</v>
@@ -2058,7 +2091,7 @@
         <v>22</v>
       </c>
       <c r="I44" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J44" t="s">
         <v>22</v>
@@ -2066,7 +2099,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
         <v>29</v>
@@ -2075,10 +2108,10 @@
         <v>30</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F45" t="s">
         <v>22</v>
@@ -2090,7 +2123,7 @@
         <v>22</v>
       </c>
       <c r="I45" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J45" t="s">
         <v>22</v>
@@ -2098,19 +2131,19 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B46" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C46" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F46" t="s">
         <v>22</v>
@@ -2122,7 +2155,7 @@
         <v>22</v>
       </c>
       <c r="I46" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J46" t="s">
         <v>22</v>
@@ -2130,34 +2163,34 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B47" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C47" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F47" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G47" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H47" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I47" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="J47" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\cv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BBBF9F-578F-45E5-AB0C-7D5D30F16F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C027E4-83C0-4BB8-BAA2-AA6EFFB5C922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="159">
   <si>
     <t># education</t>
   </si>
@@ -520,10 +520,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t># _present_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2013</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -568,7 +564,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t># 华中农业大学资源与环境学院博士后交流会</t>
+    <t>无序化结构在分枝杆菌广泛调节因子中的功能（2013M541836）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始结构和碳源营养调节合成菌群代谢能力的机制研究（32100090）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华中农业大学资源与环境学院博士后交流会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微生物种间相互作用的微生态机制（项目号：2016YFD0800206）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -899,7 +907,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1572,22 +1580,22 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C26" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="F26" t="s">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="G26" t="s">
         <v>22</v>
@@ -1604,22 +1612,22 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C27" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="G27" t="s">
         <v>22</v>
@@ -1636,22 +1644,22 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="F28" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="G28" t="s">
         <v>22</v>
@@ -1737,7 +1745,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B32" t="s">
         <v>68</v>
@@ -1907,7 +1915,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B39" t="s">
         <v>75</v>
@@ -1971,7 +1979,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B41" t="s">
         <v>137</v>
@@ -2035,7 +2043,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B43" t="s">
         <v>79</v>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\cv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C027E4-83C0-4BB8-BAA2-AA6EFFB5C922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C6DD1F-58AC-4B59-A58B-8A41DBA1FE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="165">
   <si>
     <t># education</t>
   </si>
@@ -274,14 +274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北京热心肠生物技术研究院有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京, 中国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Shaoshan, CN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -560,10 +552,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> CNY ¥24（主持）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无序化结构在分枝杆菌广泛调节因子中的功能（2013M541836）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -577,6 +565,41 @@
   </si>
   <si>
     <t>微生物种间相互作用的微生态机制（项目号：2016YFD0800206）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beijing Rexinchang Biotechnology Research Institute Co. Ltd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beijing, CN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Associate Professor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> CNY ¥30（主持）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>International Symposium on Multiscale Biofilm Interfacial Processes and Soil Health</t>
+  </si>
+  <si>
+    <t>Session host</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-12-15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -903,11 +926,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -961,22 +984,22 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
         <v>22</v>
@@ -996,19 +1019,19 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
@@ -1025,22 +1048,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
         <v>22</v>
@@ -1062,74 +1085,77 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
       </c>
       <c r="I7" t="s">
         <v>33</v>
       </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -1149,13 +1175,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>114</v>
@@ -1181,56 +1207,56 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -1250,19 +1276,19 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
@@ -1282,19 +1308,19 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
@@ -1314,56 +1340,56 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>141</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2004</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2005</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" t="s">
-        <v>51</v>
-      </c>
-      <c r="J17" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="1">
+        <v>2004</v>
+      </c>
+      <c r="E18" s="1">
         <v>2005</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2006</v>
       </c>
       <c r="F18" t="s">
         <v>22</v>
@@ -1383,19 +1409,19 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="1">
+        <v>2005</v>
+      </c>
+      <c r="E19" s="1">
         <v>2006</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2007</v>
       </c>
       <c r="F19" t="s">
         <v>22</v>
@@ -1415,19 +1441,19 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="1">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E20" s="1">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F20" t="s">
         <v>22</v>
@@ -1447,10 +1473,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
@@ -1459,7 +1485,7 @@
         <v>2008</v>
       </c>
       <c r="E21" s="1">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F21" t="s">
         <v>22</v>
@@ -1488,10 +1514,10 @@
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E22" s="1">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -1511,19 +1537,19 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="1">
+        <v>2010</v>
+      </c>
+      <c r="E23" s="1">
         <v>2011</v>
-      </c>
-      <c r="E23" s="1">
-        <v>2012</v>
       </c>
       <c r="F23" t="s">
         <v>22</v>
@@ -1543,16 +1569,16 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="1">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E24" s="1">
         <v>2012</v>
@@ -1575,59 +1601,59 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2012</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2012</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>147</v>
-      </c>
-      <c r="B26" t="s">
-        <v>152</v>
-      </c>
-      <c r="C26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F26" t="s">
-        <v>155</v>
-      </c>
-      <c r="G26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" t="s">
-        <v>60</v>
-      </c>
-      <c r="J26" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B27" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C27" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F27" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G27" t="s">
         <v>22</v>
@@ -1644,22 +1670,22 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C28" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="F28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G28" t="s">
         <v>22</v>
@@ -1676,88 +1702,88 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>146</v>
+      </c>
+      <c r="B29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" t="s">
+        <v>153</v>
+      </c>
+      <c r="G29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" t="s">
+        <v>60</v>
+      </c>
+      <c r="J29" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="1">
-        <v>2016</v>
-      </c>
-      <c r="E30" s="1">
-        <v>2016</v>
-      </c>
-      <c r="F30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" t="s">
-        <v>64</v>
-      </c>
-      <c r="J30" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E31" s="1">
-        <v>2017</v>
+        <v>81</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="G31" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="H31" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="I31" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="J31" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>85</v>
+        <v>63</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2016</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2016</v>
       </c>
       <c r="F32" t="s">
         <v>22</v>
@@ -1777,125 +1803,152 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>104</v>
+        <v>67</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2017</v>
       </c>
       <c r="F33" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="G33" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="H33" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="I33" t="s">
         <v>64</v>
       </c>
       <c r="J33" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="F34" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="G34" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="H34" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="I34" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="J34" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>98</v>
+      </c>
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" t="s">
+        <v>94</v>
+      </c>
+      <c r="H35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I35" t="s">
+        <v>64</v>
+      </c>
+      <c r="J35" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="G36" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="H36" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="I36" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="J36" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F38" t="s">
         <v>22</v>
@@ -1907,7 +1960,7 @@
         <v>22</v>
       </c>
       <c r="I38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J38" t="s">
         <v>22</v>
@@ -1915,34 +1968,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>132</v>
-      </c>
-      <c r="B39" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" t="s">
-        <v>74</v>
-      </c>
-      <c r="J39" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
@@ -1950,16 +1976,16 @@
         <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
@@ -1979,19 +2005,19 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
@@ -2014,16 +2040,16 @@
         <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F42" t="s">
         <v>22</v>
@@ -2043,19 +2069,19 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F43" t="s">
         <v>22</v>
@@ -2078,16 +2104,16 @@
         <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="F44" t="s">
         <v>22</v>
@@ -2107,19 +2133,19 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="F45" t="s">
         <v>22</v>
@@ -2139,19 +2165,19 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F46" t="s">
         <v>22</v>
@@ -2171,34 +2197,98 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" t="s">
+        <v>74</v>
+      </c>
+      <c r="J47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B47" t="s">
-        <v>142</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="F48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" t="s">
+        <v>74</v>
+      </c>
+      <c r="J48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" t="s">
         <v>81</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D49" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F49" t="s">
+        <v>94</v>
+      </c>
+      <c r="G49" t="s">
+        <v>94</v>
+      </c>
+      <c r="H49" t="s">
+        <v>94</v>
+      </c>
+      <c r="I49" t="s">
         <v>139</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F47" t="s">
-        <v>96</v>
-      </c>
-      <c r="G47" t="s">
-        <v>96</v>
-      </c>
-      <c r="H47" t="s">
-        <v>96</v>
-      </c>
-      <c r="I47" t="s">
-        <v>141</v>
-      </c>
-      <c r="J47" t="s">
-        <v>96</v>
+      <c r="J49" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\cv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C6DD1F-58AC-4B59-A58B-8A41DBA1FE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062FB814-E328-4B35-A63C-EFA6565DBAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="164">
   <si>
     <t># education</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>B. S., Biotechnology</t>
-  </si>
-  <si>
-    <t>bachelor-master continous program</t>
   </si>
   <si>
     <t>Singapore Centre for Environmental Life Sciences Engineering</t>
@@ -929,8 +926,8 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -984,19 +981,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
@@ -1025,10 +1022,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -1057,13 +1054,13 @@
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="G5" t="s">
         <v>22</v>
@@ -1085,19 +1082,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
@@ -1109,7 +1106,7 @@
         <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s">
         <v>22</v>
@@ -1117,45 +1114,45 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
         <v>157</v>
       </c>
-      <c r="B8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" t="s">
-        <v>158</v>
-      </c>
       <c r="D8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -1167,7 +1164,7 @@
         <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J9" t="s">
         <v>22</v>
@@ -1175,20 +1172,20 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
       <c r="D10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
@@ -1199,7 +1196,7 @@
         <v>22</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s">
         <v>22</v>
@@ -1207,20 +1204,20 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
       <c r="D11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
@@ -1231,7 +1228,7 @@
         <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J11" t="s">
         <v>22</v>
@@ -1244,31 +1241,31 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
         <v>40</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" t="s">
         <v>42</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" t="s">
-        <v>43</v>
       </c>
       <c r="J13" t="s">
         <v>22</v>
@@ -1276,19 +1273,19 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
         <v>44</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
@@ -1300,7 +1297,7 @@
         <v>22</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J14" t="s">
         <v>22</v>
@@ -1308,19 +1305,19 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
         <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
@@ -1332,7 +1329,7 @@
         <v>22</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J15" t="s">
         <v>22</v>
@@ -1340,19 +1337,19 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
@@ -1364,7 +1361,7 @@
         <v>22</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J16" t="s">
         <v>22</v>
@@ -1377,10 +1374,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
         <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -1401,7 +1398,7 @@
         <v>22</v>
       </c>
       <c r="I18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J18" t="s">
         <v>22</v>
@@ -1409,10 +1406,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
         <v>52</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
@@ -1433,7 +1430,7 @@
         <v>22</v>
       </c>
       <c r="I19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J19" t="s">
         <v>22</v>
@@ -1441,10 +1438,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
         <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
@@ -1465,7 +1462,7 @@
         <v>22</v>
       </c>
       <c r="I20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J20" t="s">
         <v>22</v>
@@ -1473,10 +1470,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
@@ -1497,7 +1494,7 @@
         <v>22</v>
       </c>
       <c r="I21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J21" t="s">
         <v>22</v>
@@ -1505,10 +1502,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
         <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>56</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
@@ -1529,7 +1526,7 @@
         <v>22</v>
       </c>
       <c r="I22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J22" t="s">
         <v>22</v>
@@ -1537,10 +1534,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
         <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>56</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
@@ -1561,7 +1558,7 @@
         <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J23" t="s">
         <v>22</v>
@@ -1569,10 +1566,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
         <v>57</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
@@ -1593,7 +1590,7 @@
         <v>22</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J24" t="s">
         <v>22</v>
@@ -1601,10 +1598,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
@@ -1625,7 +1622,7 @@
         <v>22</v>
       </c>
       <c r="I25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J25" t="s">
         <v>22</v>
@@ -1638,22 +1635,22 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C27" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="F27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G27" t="s">
         <v>22</v>
@@ -1662,7 +1659,7 @@
         <v>22</v>
       </c>
       <c r="I27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J27" t="s">
         <v>22</v>
@@ -1670,22 +1667,22 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C28" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G28" t="s">
         <v>22</v>
@@ -1694,7 +1691,7 @@
         <v>22</v>
       </c>
       <c r="I28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J28" t="s">
         <v>22</v>
@@ -1702,22 +1699,22 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B29" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="F29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G29" t="s">
         <v>22</v>
@@ -1726,7 +1723,7 @@
         <v>22</v>
       </c>
       <c r="I29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J29" t="s">
         <v>22</v>
@@ -1739,45 +1736,45 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" t="s">
         <v>162</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>62</v>
-      </c>
-      <c r="C32" t="s">
-        <v>63</v>
       </c>
       <c r="D32" s="1">
         <v>2016</v>
@@ -1795,7 +1792,7 @@
         <v>22</v>
       </c>
       <c r="I32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J32" t="s">
         <v>22</v>
@@ -1803,13 +1800,13 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
         <v>65</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>66</v>
-      </c>
-      <c r="C33" t="s">
-        <v>67</v>
       </c>
       <c r="D33" s="1">
         <v>2017</v>
@@ -1827,7 +1824,7 @@
         <v>22</v>
       </c>
       <c r="I33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J33" t="s">
         <v>22</v>
@@ -1835,19 +1832,19 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F34" t="s">
         <v>22</v>
@@ -1859,7 +1856,7 @@
         <v>22</v>
       </c>
       <c r="I34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J34" t="s">
         <v>22</v>
@@ -1867,66 +1864,66 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" t="s">
         <v>98</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>99</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="F35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" t="s">
         <v>124</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>125</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36" t="s">
+        <v>93</v>
+      </c>
+      <c r="I36" t="s">
         <v>128</v>
       </c>
-      <c r="F36" t="s">
-        <v>94</v>
-      </c>
-      <c r="G36" t="s">
-        <v>94</v>
-      </c>
-      <c r="H36" t="s">
-        <v>94</v>
-      </c>
-      <c r="I36" t="s">
-        <v>129</v>
-      </c>
       <c r="J36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
@@ -1936,31 +1933,31 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" t="s">
         <v>69</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" t="s">
         <v>70</v>
-      </c>
-      <c r="C38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38" t="s">
-        <v>71</v>
       </c>
       <c r="J38" t="s">
         <v>22</v>
@@ -1973,31 +1970,31 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" t="s">
         <v>72</v>
       </c>
-      <c r="B40" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" t="s">
         <v>73</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" t="s">
-        <v>22</v>
-      </c>
-      <c r="I40" t="s">
-        <v>74</v>
       </c>
       <c r="J40" t="s">
         <v>22</v>
@@ -2005,19 +2002,19 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
@@ -2029,7 +2026,7 @@
         <v>22</v>
       </c>
       <c r="I41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J41" t="s">
         <v>22</v>
@@ -2037,19 +2034,19 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
         <v>20</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F42" t="s">
         <v>22</v>
@@ -2061,7 +2058,7 @@
         <v>22</v>
       </c>
       <c r="I42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J42" t="s">
         <v>22</v>
@@ -2069,19 +2066,19 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
         <v>20</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s">
         <v>22</v>
@@ -2093,7 +2090,7 @@
         <v>22</v>
       </c>
       <c r="I43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J43" t="s">
         <v>22</v>
@@ -2101,19 +2098,19 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" t="s">
         <v>77</v>
       </c>
-      <c r="C44" t="s">
-        <v>78</v>
-      </c>
       <c r="D44" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F44" t="s">
         <v>22</v>
@@ -2125,7 +2122,7 @@
         <v>22</v>
       </c>
       <c r="I44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J44" t="s">
         <v>22</v>
@@ -2133,19 +2130,19 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" t="s">
         <v>79</v>
       </c>
-      <c r="C45" t="s">
-        <v>80</v>
-      </c>
       <c r="D45" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F45" t="s">
         <v>22</v>
@@ -2157,7 +2154,7 @@
         <v>22</v>
       </c>
       <c r="I45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J45" t="s">
         <v>22</v>
@@ -2165,20 +2162,20 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="F46" t="s">
         <v>22</v>
       </c>
@@ -2189,7 +2186,7 @@
         <v>22</v>
       </c>
       <c r="I46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J46" t="s">
         <v>22</v>
@@ -2197,20 +2194,20 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" t="s">
         <v>29</v>
       </c>
-      <c r="C47" t="s">
-        <v>30</v>
-      </c>
       <c r="D47" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="F47" t="s">
         <v>22</v>
       </c>
@@ -2221,7 +2218,7 @@
         <v>22</v>
       </c>
       <c r="I47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J47" t="s">
         <v>22</v>
@@ -2229,20 +2226,20 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" t="s">
         <v>130</v>
       </c>
-      <c r="B48" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="D48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="F48" t="s">
         <v>22</v>
       </c>
@@ -2253,7 +2250,7 @@
         <v>22</v>
       </c>
       <c r="I48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J48" t="s">
         <v>22</v>
@@ -2261,34 +2258,34 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" t="s">
+        <v>93</v>
+      </c>
+      <c r="G49" t="s">
+        <v>93</v>
+      </c>
+      <c r="H49" t="s">
+        <v>93</v>
+      </c>
+      <c r="I49" t="s">
         <v>138</v>
       </c>
-      <c r="F49" t="s">
-        <v>94</v>
-      </c>
-      <c r="G49" t="s">
-        <v>94</v>
-      </c>
-      <c r="H49" t="s">
-        <v>94</v>
-      </c>
-      <c r="I49" t="s">
-        <v>139</v>
-      </c>
       <c r="J49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\cv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062FB814-E328-4B35-A63C-EFA6565DBAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8941F3FA-A336-43B7-8CDC-FD546851834A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="170">
   <si>
     <t># education</t>
   </si>
@@ -597,6 +597,30 @@
   </si>
   <si>
     <t>2021-12-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中央高校基本业务费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> CNY ¥20（主持）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>噬菌体阻遏蛋白 EohA 调控大肠杆菌 O157:H7 生物膜形成的机制研究（2662022ZHQD001）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气候变化和碳中和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,9 +664,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -923,11 +950,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1337,19 +1364,19 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
@@ -1369,56 +1396,56 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>140</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2004</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2005</v>
-      </c>
-      <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="1">
+        <v>2004</v>
+      </c>
+      <c r="E19" s="1">
         <v>2005</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2006</v>
       </c>
       <c r="F19" t="s">
         <v>22</v>
@@ -1438,19 +1465,19 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="1">
+        <v>2005</v>
+      </c>
+      <c r="E20" s="1">
         <v>2006</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2007</v>
       </c>
       <c r="F20" t="s">
         <v>22</v>
@@ -1470,19 +1497,19 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="1">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E21" s="1">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F21" t="s">
         <v>22</v>
@@ -1502,10 +1529,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
@@ -1514,7 +1541,7 @@
         <v>2008</v>
       </c>
       <c r="E22" s="1">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -1543,10 +1570,10 @@
         <v>20</v>
       </c>
       <c r="D23" s="1">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E23" s="1">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F23" t="s">
         <v>22</v>
@@ -1566,19 +1593,19 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="1">
+        <v>2010</v>
+      </c>
+      <c r="E24" s="1">
         <v>2011</v>
-      </c>
-      <c r="E24" s="1">
-        <v>2012</v>
       </c>
       <c r="F24" t="s">
         <v>22</v>
@@ -1598,16 +1625,16 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="1">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E25" s="1">
         <v>2012</v>
@@ -1630,59 +1657,59 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2012</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2012</v>
+      </c>
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>144</v>
-      </c>
-      <c r="B27" t="s">
-        <v>149</v>
-      </c>
-      <c r="C27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F27" t="s">
-        <v>151</v>
-      </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" t="s">
-        <v>59</v>
-      </c>
-      <c r="J27" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C28" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="F28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G28" t="s">
         <v>22</v>
@@ -1699,22 +1726,22 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B29" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C29" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F29" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G29" t="s">
         <v>22</v>
@@ -1731,120 +1758,120 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+        <v>145</v>
+      </c>
+      <c r="B30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" t="s">
+        <v>152</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" t="s">
+        <v>59</v>
+      </c>
+      <c r="J30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B31" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F31" t="s">
-        <v>93</v>
+        <v>147</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="G31" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="H31" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="I31" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="J31" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="1">
-        <v>2016</v>
-      </c>
-      <c r="E32" s="1">
-        <v>2016</v>
-      </c>
-      <c r="F32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" t="s">
-        <v>63</v>
-      </c>
-      <c r="J32" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E33" s="1">
-        <v>2017</v>
+        <v>80</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="G33" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="H33" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="I33" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="J33" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2016</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2016</v>
       </c>
       <c r="F34" t="s">
         <v>22</v>
@@ -1864,125 +1891,152 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>101</v>
+        <v>66</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2017</v>
       </c>
       <c r="F35" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="I35" t="s">
         <v>63</v>
       </c>
       <c r="J35" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="F36" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G36" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="H36" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="I36" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="J36" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>97</v>
+      </c>
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" t="s">
+        <v>93</v>
+      </c>
+      <c r="G37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H37" t="s">
+        <v>93</v>
+      </c>
+      <c r="I37" t="s">
+        <v>63</v>
+      </c>
+      <c r="J37" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="G38" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="H38" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="I38" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="J38" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
@@ -1994,7 +2048,7 @@
         <v>22</v>
       </c>
       <c r="I40" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J40" t="s">
         <v>22</v>
@@ -2002,34 +2056,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>129</v>
-      </c>
-      <c r="B41" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" t="s">
-        <v>22</v>
-      </c>
-      <c r="I41" t="s">
-        <v>73</v>
-      </c>
-      <c r="J41" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
@@ -2037,16 +2064,16 @@
         <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F42" t="s">
         <v>22</v>
@@ -2069,16 +2096,16 @@
         <v>129</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F43" t="s">
         <v>22</v>
@@ -2101,16 +2128,16 @@
         <v>71</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F44" t="s">
         <v>22</v>
@@ -2133,16 +2160,16 @@
         <v>129</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
         <v>22</v>
@@ -2165,16 +2192,16 @@
         <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="C46" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s">
         <v>22</v>
@@ -2194,19 +2221,19 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="F47" t="s">
         <v>22</v>
@@ -2226,19 +2253,19 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="F48" t="s">
         <v>22</v>
@@ -2258,33 +2285,97 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F49" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" t="s">
+        <v>73</v>
+      </c>
+      <c r="J49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
         <v>129</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" t="s">
+        <v>73</v>
+      </c>
+      <c r="J50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" t="s">
         <v>139</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C51" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F51" t="s">
         <v>93</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G51" t="s">
         <v>93</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H51" t="s">
         <v>93</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I51" t="s">
         <v>138</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J51" t="s">
         <v>93</v>
       </c>
     </row>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\cv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8941F3FA-A336-43B7-8CDC-FD546851834A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB2B8B9-D9F3-4F44-A473-8BAEDB8EDD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="176">
   <si>
     <t># education</t>
   </si>
@@ -275,50 +275,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018-9-11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2017-10-15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019-5-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-8-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-9-24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-7-16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-6-14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-7-27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2017-10-19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019-5-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-7-28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -331,10 +295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2016-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第二届土壤生物健康研讨会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -355,66 +315,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2007-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2004-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2008-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>current</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2016-12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2012-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2012-12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2013-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> “不忘初心，牢记使命”教工党员培训班</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -449,14 +361,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2021-6-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-6-24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>presentation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -469,14 +373,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2021-5-30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-5-28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中国肠道大会 2021</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -489,14 +385,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2021-7-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-7-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>present</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -616,11 +504,146 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2022-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-6</t>
+    <t>教育部产学合作项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNY ¥10（主持）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于微生态原理的有机肥功能强化研究</t>
+  </si>
+  <si>
+    <t>grant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007-09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2008-07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2004-09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012-07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-09-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-08-08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-09-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-07-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-06-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-07-28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-07-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-07-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-07-27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,7 +651,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,6 +665,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -664,12 +694,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -950,11 +981,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1017,10 +1048,10 @@
         <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
@@ -1049,10 +1080,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -1081,13 +1112,13 @@
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
         <v>22</v>
@@ -1112,16 +1143,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
@@ -1141,28 +1172,28 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
@@ -1176,10 +1207,10 @@
         <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -1208,10 +1239,10 @@
         <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -1240,10 +1271,10 @@
         <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -1277,10 +1308,10 @@
         <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -1309,10 +1340,10 @@
         <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
@@ -1341,10 +1372,10 @@
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
@@ -1367,16 +1398,16 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
@@ -1396,7 +1427,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
         <v>47</v>
@@ -1405,10 +1436,10 @@
         <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -1694,22 +1725,22 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="B28" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="F28" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="G28" t="s">
         <v>22</v>
@@ -1726,22 +1757,22 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="C29" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="F29" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="G29" t="s">
         <v>22</v>
@@ -1758,22 +1789,22 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="C30" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="F30" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="G30" t="s">
         <v>22</v>
@@ -1790,22 +1821,22 @@
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="B31" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="C31" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G31" t="s">
         <v>22</v>
@@ -1820,90 +1851,90 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>140</v>
+      </c>
+      <c r="B32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" t="s">
+        <v>84</v>
+      </c>
+      <c r="I32" t="s">
+        <v>144</v>
+      </c>
+      <c r="J32" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>161</v>
-      </c>
-      <c r="B33" t="s">
-        <v>162</v>
-      </c>
-      <c r="C33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F33" t="s">
-        <v>93</v>
-      </c>
-      <c r="G33" t="s">
-        <v>93</v>
-      </c>
-      <c r="H33" t="s">
-        <v>93</v>
-      </c>
-      <c r="I33" t="s">
-        <v>128</v>
-      </c>
-      <c r="J33" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="1">
-        <v>2016</v>
-      </c>
-      <c r="E34" s="1">
-        <v>2016</v>
+        <v>80</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="G34" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="I34" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="J34" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D35" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E35" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F35" t="s">
         <v>22</v>
@@ -1923,19 +1954,19 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>82</v>
+        <v>145</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2017</v>
       </c>
       <c r="F36" t="s">
         <v>22</v>
@@ -1955,157 +1986,157 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="F37" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G37" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="H37" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="I37" t="s">
         <v>63</v>
       </c>
       <c r="J37" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="F38" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G38" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="I38" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="J38" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>101</v>
+      </c>
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" t="s">
+        <v>84</v>
+      </c>
+      <c r="I39" t="s">
+        <v>104</v>
+      </c>
+      <c r="J39" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" t="s">
-        <v>22</v>
-      </c>
-      <c r="I40" t="s">
-        <v>70</v>
-      </c>
-      <c r="J40" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>68</v>
+      </c>
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" t="s">
+        <v>70</v>
+      </c>
+      <c r="J41" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" t="s">
-        <v>22</v>
-      </c>
-      <c r="H42" t="s">
-        <v>22</v>
-      </c>
-      <c r="I42" t="s">
-        <v>73</v>
-      </c>
-      <c r="J42" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="F43" t="s">
         <v>22</v>
@@ -2125,19 +2156,19 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="F44" t="s">
         <v>22</v>
@@ -2157,19 +2188,19 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="B45" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
         <v>20</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="F45" t="s">
         <v>22</v>
@@ -2189,19 +2220,19 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="F46" t="s">
         <v>22</v>
@@ -2221,19 +2252,19 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="F47" t="s">
         <v>22</v>
@@ -2253,19 +2284,19 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="F48" t="s">
         <v>22</v>
@@ -2288,16 +2319,16 @@
         <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="F49" t="s">
         <v>22</v>
@@ -2317,19 +2348,19 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="F50" t="s">
         <v>22</v>
@@ -2349,34 +2380,66 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F51" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" t="s">
+        <v>73</v>
+      </c>
+      <c r="J51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" t="s">
         <v>80</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F51" t="s">
-        <v>93</v>
-      </c>
-      <c r="G51" t="s">
-        <v>93</v>
-      </c>
-      <c r="H51" t="s">
-        <v>93</v>
-      </c>
-      <c r="I51" t="s">
-        <v>138</v>
-      </c>
-      <c r="J51" t="s">
-        <v>93</v>
+      <c r="D52" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F52" t="s">
+        <v>84</v>
+      </c>
+      <c r="G52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H52" t="s">
+        <v>84</v>
+      </c>
+      <c r="I52" t="s">
+        <v>110</v>
+      </c>
+      <c r="J52" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\cv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB2B8B9-D9F3-4F44-A473-8BAEDB8EDD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E2226A-A553-4B8C-A346-4EA4192B8A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -984,8 +984,8 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
